--- a/Lịch Đăng Ký Thi TOEIC/Lịch thi học viên.xlsx
+++ b/Lịch Đăng Ký Thi TOEIC/Lịch thi học viên.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>STT</t>
   </si>
@@ -41,13 +41,25 @@
   </si>
   <si>
     <t>0898655053</t>
+  </si>
+  <si>
+    <t>Tạ Minh Châu</t>
+  </si>
+  <si>
+    <t>TOEIC BK3</t>
+  </si>
+  <si>
+    <t>16/5/2018</t>
+  </si>
+  <si>
+    <t>01263597416</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,21 +72,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -125,29 +122,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,122 +448,132 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="28.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lịch Đăng Ký Thi TOEIC/Lịch thi học viên.xlsx
+++ b/Lịch Đăng Ký Thi TOEIC/Lịch thi học viên.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>STT</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>01263597416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01696365707 </t>
+  </si>
+  <si>
+    <t>TOEIC AK8</t>
+  </si>
+  <si>
+    <t>Lê Thị Ngọc Trà</t>
   </si>
 </sst>
 </file>
@@ -122,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,6 +150,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +466,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -457,7 +475,7 @@
     <col min="2" max="2" width="28.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14" style="12" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -491,7 +509,7 @@
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -508,72 +526,82 @@
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="10">
+        <v>43106</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="9"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="9"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="9"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="9"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="9"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="9"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="9"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="9"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="E12" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lịch Đăng Ký Thi TOEIC/Lịch thi học viên.xlsx
+++ b/Lịch Đăng Ký Thi TOEIC/Lịch thi học viên.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>STT</t>
   </si>
@@ -62,6 +62,18 @@
   </si>
   <si>
     <t>Lê Thị Ngọc Trà</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hùng</t>
+  </si>
+  <si>
+    <t>TOEIC BK7</t>
+  </si>
+  <si>
+    <t>27/6/2018</t>
+  </si>
+  <si>
+    <t>0935718418</t>
   </si>
 </sst>
 </file>
@@ -466,7 +478,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -548,11 +560,21 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="11"/>
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>

--- a/Lịch Đăng Ký Thi TOEIC/Lịch thi học viên.xlsx
+++ b/Lịch Đăng Ký Thi TOEIC/Lịch thi học viên.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>STT</t>
   </si>
@@ -74,6 +74,18 @@
   </si>
   <si>
     <t>0935718418</t>
+  </si>
+  <si>
+    <t>Nguyễn Bá Anh Vũ</t>
+  </si>
+  <si>
+    <t>Dương Thị Hoàng Anh</t>
+  </si>
+  <si>
+    <t>0969176761</t>
+  </si>
+  <si>
+    <t>0909246801</t>
   </si>
 </sst>
 </file>
@@ -478,7 +490,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -577,17 +589,35 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">

--- a/Lịch Đăng Ký Thi TOEIC/Lịch thi học viên.xlsx
+++ b/Lịch Đăng Ký Thi TOEIC/Lịch thi học viên.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>STT</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>0909246801</t>
+  </si>
+  <si>
+    <t>Trần Thị Phương Lan</t>
+  </si>
+  <si>
+    <t>01689261569</t>
   </si>
 </sst>
 </file>
@@ -490,7 +496,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -618,14 +624,26 @@
       <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="11"/>
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="10">
+        <v>43197</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
